--- a/gantt_chart_data.xlsx
+++ b/gantt_chart_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpham\Desktop\spotfire-mod-gantt-calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E874C-2099-416A-8BFA-9B12A71A8F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ADC57A-7389-4E00-BA3F-89C12693A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90E4BBB9-D367-4DB1-B59C-D68F41F11539}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
         <v>45218</v>
       </c>
       <c r="D6" s="3">
-        <v>45240</v>
+        <v>45233</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -681,7 +681,7 @@
         <v>45218</v>
       </c>
       <c r="D8" s="3">
-        <v>45222</v>
+        <v>45253</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>45231</v>
+        <v>45227</v>
       </c>
       <c r="D9" s="3">
         <v>45234</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>45234</v>
+        <v>45203</v>
       </c>
       <c r="D10" s="3">
         <v>45236</v>
@@ -856,15 +856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010026D34082D3A63B4EA086817B4967E19D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f92dc3a7624068abfe16f9ad1422201">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df7ac09f-4afe-40fd-a684-a11c4beab919" xmlns:ns4="c18e4c94-92f6-48db-afeb-427ca4a9774b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afdb1dbfde3b76874ff5979689695fe6" ns3:_="" ns4:_="">
     <xsd:import namespace="df7ac09f-4afe-40fd-a684-a11c4beab919"/>
@@ -1047,6 +1038,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1056,14 +1056,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A78DA1-C548-42D3-9D30-8D53B3E5BD6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{412D1554-29BD-4327-A7CF-7DC92362602F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1078,6 +1070,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A78DA1-C548-42D3-9D30-8D53B3E5BD6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/gantt_chart_data.xlsx
+++ b/gantt_chart_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpham\Desktop\spotfire-mod-gantt-calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ADC57A-7389-4E00-BA3F-89C12693A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F13133-8AB2-4EE6-8717-051AA03D8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90E4BBB9-D367-4DB1-B59C-D68F41F11539}"/>
+    <workbookView xWindow="4380" yWindow="3075" windowWidth="21765" windowHeight="11685" xr2:uid="{90E4BBB9-D367-4DB1-B59C-D68F41F11539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
